--- a/breakage_B.xlsx
+++ b/breakage_B.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>480.5</v>
+        <v>480.3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>480.5</v>
+        <v>480.3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>480.5</v>
+        <v>480.3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -624,66 +624,68 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21.95</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>21.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J6" t="n">
-        <v>478.8</v>
+        <v>92.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.14</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>647.84</v>
+        <v>13.01</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="F7" t="n">
-        <v>647.84</v>
+        <v>21.73</v>
       </c>
       <c r="G7" t="n">
-        <v>0.23</v>
+        <v>0.89</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="J7" t="n">
-        <v>475.4</v>
+        <v>35.5</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +698,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.85</v>
+        <v>84.16</v>
       </c>
       <c r="D8" t="n">
-        <v>23.7</v>
+        <v>10.2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>23.7</v>
+        <v>17.42</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>0.71</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="J8" t="n">
-        <v>474.3</v>
+        <v>34.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -733,103 +735,103 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79.14</v>
+        <v>80.12</v>
       </c>
       <c r="D9" t="n">
-        <v>8.220000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="E9" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>17.39</v>
+        <v>15.73</v>
       </c>
       <c r="G9" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J9" t="n">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="K9" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.44</v>
+        <v>71.69</v>
       </c>
       <c r="D10" t="n">
-        <v>11.41</v>
+        <v>15.71</v>
       </c>
       <c r="E10" t="n">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="F10" t="n">
-        <v>22.4</v>
+        <v>22.82</v>
       </c>
       <c r="G10" t="n">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="J10" t="n">
-        <v>68.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80.19</v>
+        <v>85.19</v>
       </c>
       <c r="D11" t="n">
-        <v>11.24</v>
+        <v>17.94</v>
       </c>
       <c r="E11" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F11" t="n">
-        <v>13.54</v>
+        <v>20.76</v>
       </c>
       <c r="G11" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I11" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J11" t="n">
-        <v>64.59999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -842,31 +844,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>78.25</v>
+        <v>84.13</v>
       </c>
       <c r="D12" t="n">
-        <v>10.9</v>
+        <v>13.03</v>
       </c>
       <c r="E12" t="n">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F12" t="n">
-        <v>21.39</v>
+        <v>15.76</v>
       </c>
       <c r="G12" t="n">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="J12" t="n">
-        <v>53.3</v>
+        <v>42.3</v>
       </c>
       <c r="K12" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -879,31 +881,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>79.26000000000001</v>
+        <v>83.72</v>
       </c>
       <c r="D13" t="n">
-        <v>8.68</v>
+        <v>7.02</v>
       </c>
       <c r="E13" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F13" t="n">
-        <v>19.22</v>
+        <v>10.14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="J13" t="n">
-        <v>45.6</v>
+        <v>34.8</v>
       </c>
       <c r="K13" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -916,31 +918,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>10.09</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.65</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>34.9</v>
+        <v>477.2</v>
       </c>
       <c r="K14" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -953,31 +955,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75.11</v>
+        <v>72.11</v>
       </c>
       <c r="D15" t="n">
-        <v>20.97</v>
+        <v>20.55</v>
       </c>
       <c r="E15" t="n">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F15" t="n">
-        <v>42.64</v>
+        <v>40.22</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="H15" t="n">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="I15" t="n">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="J15" t="n">
-        <v>37.3</v>
+        <v>44.7</v>
       </c>
       <c r="K15" t="n">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -990,31 +992,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>77.02</v>
+        <v>75.2</v>
       </c>
       <c r="D16" t="n">
-        <v>13.76</v>
+        <v>21.66</v>
       </c>
       <c r="E16" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="F16" t="n">
-        <v>28.63</v>
+        <v>38.62</v>
       </c>
       <c r="G16" t="n">
-        <v>0.88</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I16" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="J16" t="n">
-        <v>50.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -1027,31 +1029,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73.52</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>11.94</v>
+        <v>15.56</v>
       </c>
       <c r="E17" t="n">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="F17" t="n">
-        <v>31.23</v>
+        <v>30.84</v>
       </c>
       <c r="G17" t="n">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="H17" t="n">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="I17" t="n">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="J17" t="n">
-        <v>43.4</v>
+        <v>36.5</v>
       </c>
       <c r="K17" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -1064,31 +1066,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>71.47</v>
+        <v>68.06</v>
       </c>
       <c r="D18" t="n">
-        <v>14.49</v>
+        <v>11.54</v>
       </c>
       <c r="E18" t="n">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="F18" t="n">
-        <v>33.28</v>
+        <v>36.48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="H18" t="n">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="I18" t="n">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="J18" t="n">
-        <v>43.9</v>
+        <v>35.2</v>
       </c>
       <c r="K18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -1101,66 +1103,68 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61.68</v>
+        <v>71.56</v>
       </c>
       <c r="D19" t="n">
-        <v>22.06</v>
+        <v>19.63</v>
       </c>
       <c r="E19" t="n">
-        <v>559</v>
+        <v>434</v>
       </c>
       <c r="F19" t="n">
-        <v>55.06</v>
+        <v>42.96</v>
       </c>
       <c r="G19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H19" t="n">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="I19" t="n">
-        <v>559</v>
+        <v>434</v>
       </c>
       <c r="J19" t="n">
-        <v>80.5</v>
+        <v>39</v>
       </c>
       <c r="K19" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>22.0 lbs-22/1 CRT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12.91</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>45.33</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>338.7</v>
+        <v>479.1</v>
       </c>
       <c r="K20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1173,31 +1177,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>85.06</v>
+        <v>83.55</v>
       </c>
       <c r="D21" t="n">
-        <v>6.86</v>
+        <v>7.23</v>
       </c>
       <c r="E21" t="n">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="F21" t="n">
-        <v>10.09</v>
+        <v>19.75</v>
       </c>
       <c r="G21" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21" t="n">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="J21" t="n">
-        <v>38.9</v>
+        <v>36.4</v>
       </c>
       <c r="K21" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1210,31 +1214,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>81.5</v>
+        <v>75.12</v>
       </c>
       <c r="D22" t="n">
-        <v>10.19</v>
+        <v>14.24</v>
       </c>
       <c r="E22" t="n">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="F22" t="n">
-        <v>19.73</v>
+        <v>31.01</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I22" t="n">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="J22" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -1247,31 +1251,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>79.44</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>14.07</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>31.65</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45</v>
+        <v>471.1</v>
       </c>
       <c r="K23" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1284,31 +1288,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>78.05</v>
+        <v>84.06</v>
       </c>
       <c r="D24" t="n">
-        <v>8.869999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="E24" t="n">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F24" t="n">
-        <v>23.03</v>
+        <v>18.97</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="H24" t="n">
         <v>43</v>
       </c>
       <c r="I24" t="n">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="J24" t="n">
-        <v>42.4</v>
+        <v>33.3</v>
       </c>
       <c r="K24" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -1321,31 +1325,31 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>83.70999999999999</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>10.25</v>
+        <v>11.59</v>
       </c>
       <c r="E25" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F25" t="n">
-        <v>19.34</v>
+        <v>19.73</v>
       </c>
       <c r="G25" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="H25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I25" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J25" t="n">
-        <v>37.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -1358,31 +1362,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>75.56999999999999</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>15.15</v>
+        <v>13.82</v>
       </c>
       <c r="E26" t="n">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="F26" t="n">
-        <v>22.73</v>
+        <v>26.73</v>
       </c>
       <c r="G26" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="H26" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I26" t="n">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="J26" t="n">
-        <v>85.59999999999999</v>
+        <v>36.2</v>
       </c>
       <c r="K26" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1395,31 +1399,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>83.89</v>
+        <v>81.77</v>
       </c>
       <c r="D27" t="n">
-        <v>16.33</v>
+        <v>17.54</v>
       </c>
       <c r="E27" t="n">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="F27" t="n">
-        <v>24.56</v>
+        <v>29.97</v>
       </c>
       <c r="G27" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I27" t="n">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="J27" t="n">
-        <v>40.8</v>
+        <v>33.1</v>
       </c>
       <c r="K27" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28">
@@ -1432,31 +1436,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>80.5</v>
+        <v>83.19</v>
       </c>
       <c r="D28" t="n">
-        <v>11.98</v>
+        <v>10.04</v>
       </c>
       <c r="E28" t="n">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F28" t="n">
-        <v>22.61</v>
+        <v>17.57</v>
       </c>
       <c r="G28" t="n">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="H28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="J28" t="n">
-        <v>53.3</v>
+        <v>38.2</v>
       </c>
       <c r="K28" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -1469,31 +1473,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>76.20999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="E29" t="n">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="F29" t="n">
-        <v>30.26</v>
+        <v>18.22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I29" t="n">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="J29" t="n">
-        <v>38.8</v>
+        <v>63.9</v>
       </c>
       <c r="K29" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -1506,31 +1510,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>72.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>30.96</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>48.7</v>
+        <v>478.7</v>
       </c>
       <c r="K30" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1543,31 +1547,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>73.08</v>
+        <v>75.72</v>
       </c>
       <c r="D31" t="n">
-        <v>9.66</v>
+        <v>11.28</v>
       </c>
       <c r="E31" t="n">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F31" t="n">
-        <v>31.81</v>
+        <v>25.95</v>
       </c>
       <c r="G31" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I31" t="n">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J31" t="n">
-        <v>72.2</v>
+        <v>54.2</v>
       </c>
       <c r="K31" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -1580,31 +1584,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>80.63</v>
+        <v>83.81</v>
       </c>
       <c r="D32" t="n">
-        <v>4.76</v>
+        <v>7.86</v>
       </c>
       <c r="E32" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F32" t="n">
-        <v>22.92</v>
+        <v>26.62</v>
       </c>
       <c r="G32" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="J32" t="n">
-        <v>38.3</v>
+        <v>32.7</v>
       </c>
       <c r="K32" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -1675,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>478.8</v>
+        <v>478.4</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1685,35 +1689,35 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avg. Count : 0.94 lbs</t>
+          <t>Avg. Count : 0.97 lbs</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>56.06</v>
+        <v>56.79</v>
       </c>
       <c r="D35" t="n">
-        <v>11.38</v>
+        <v>13.1</v>
       </c>
       <c r="E35" t="n">
-        <v>5791</v>
+        <v>5588</v>
       </c>
       <c r="F35" t="n">
-        <v>26.15</v>
+        <v>24.54</v>
       </c>
       <c r="G35" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="H35" t="n">
-        <v>1162</v>
+        <v>1318</v>
       </c>
       <c r="I35" t="n">
-        <v>5791</v>
+        <v>5588</v>
       </c>
       <c r="J35" t="n">
-        <v>5325</v>
+        <v>5346.4</v>
       </c>
       <c r="K35" t="n">
-        <v>1955</v>
+        <v>2226</v>
       </c>
     </row>
   </sheetData>

--- a/breakage_B.xlsx
+++ b/breakage_B.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>M/c No.</t>
+  </si>
+  <si>
+    <t>Count and Material</t>
+  </si>
+  <si>
+    <t>V ry</t>
+  </si>
+  <si>
+    <t>Power Factor</t>
+  </si>
+  <si>
+    <t>Curr_R</t>
+  </si>
+  <si>
+    <t>min/doff</t>
+  </si>
+  <si>
+    <t>Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>doff min</t>
+  </si>
+  <si>
+    <t>doffs</t>
+  </si>
+  <si>
+    <t>m/min</t>
+  </si>
+  <si>
+    <t>stop min</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,87 +409,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>M/c No.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Count and Material</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>V ry</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Power Factor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curr_R</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>min/doff</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>doff min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>doffs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>m/min</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>